--- a/EIEx/EIEx/Données/Import produits/Saisie produit renseignée 4.xlsx
+++ b/EIEx/EIEx/Données/Import produits/Saisie produit renseignée 4.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abate Fred Bureau\Documents\EIE\EIEx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PATRICE\Dev\Repos\EIE\EIEx\EIEx\Données\Import produits\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1644" uniqueCount="867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2015" uniqueCount="870">
   <si>
     <t>Id</t>
   </si>
@@ -2625,12 +2625,21 @@
   </si>
   <si>
     <t>KEY5 Pack de 5 badges bi-couleur pour UGVBT : gris - bleu, gris - jaune, gris - orange, gris - rouge et gris - vert (non compatible UGVB et UGVBA). Les badges programmables sur UGVBT avec UGVLOG+.</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>KO</t>
+  </si>
+  <si>
+    <t>Pas de référence produit valide.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3176,30 +3185,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K368"/>
+  <dimension ref="A2:N368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A302" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A368" sqref="A368"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A336" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" customWidth="1"/>
-    <col min="6" max="6" width="53.85546875" customWidth="1"/>
-    <col min="7" max="7" width="4.85546875" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" customWidth="1"/>
-    <col min="10" max="10" width="25.42578125" customWidth="1"/>
+    <col min="2" max="2" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.81640625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.26953125" customWidth="1"/>
+    <col min="6" max="6" width="53.81640625" customWidth="1"/>
+    <col min="7" max="7" width="4.81640625" customWidth="1"/>
+    <col min="9" max="9" width="9.1796875" customWidth="1"/>
+    <col min="10" max="10" width="25.453125" customWidth="1"/>
     <col min="11" max="11" width="5" customWidth="1"/>
-    <col min="13" max="13" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.42578125" customWidth="1"/>
-    <col min="15" max="15" width="15.28515625" customWidth="1"/>
+    <col min="13" max="13" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.453125" customWidth="1"/>
+    <col min="15" max="15" width="15.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3234,7 +3244,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B3" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -3267,8 +3277,11 @@
       <c r="K3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M3" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B4" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -3301,8 +3314,11 @@
       <c r="K4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M4" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B5" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -3335,8 +3351,11 @@
       <c r="K5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M5" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B6" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -3366,8 +3385,11 @@
       <c r="K6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M6" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B7" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -3397,8 +3419,11 @@
       <c r="K7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M7" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B8">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>4</v>
@@ -3429,8 +3454,14 @@
       <c r="K8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M8" t="s">
+        <v>868</v>
+      </c>
+      <c r="N8" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B9">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>4</v>
@@ -3461,8 +3492,14 @@
       <c r="K9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M9" t="s">
+        <v>868</v>
+      </c>
+      <c r="N9" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B10">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>4</v>
@@ -3493,8 +3530,14 @@
       <c r="K10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M10" t="s">
+        <v>868</v>
+      </c>
+      <c r="N10" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B11">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>4</v>
@@ -3525,8 +3568,14 @@
       <c r="K11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M11" t="s">
+        <v>868</v>
+      </c>
+      <c r="N11" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B12" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -3556,8 +3605,11 @@
       <c r="K12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M12" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B13" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -3587,8 +3639,11 @@
       <c r="K13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M13" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B14" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -3618,8 +3673,11 @@
       <c r="K14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M14" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B15">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -3652,8 +3710,11 @@
       <c r="K15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M15" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B16">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -3686,8 +3747,11 @@
       <c r="K16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M16" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B17">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -3720,8 +3784,11 @@
       <c r="K17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M17" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B18">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -3754,8 +3821,11 @@
       <c r="K18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M18" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B19">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -3788,8 +3858,11 @@
       <c r="K19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M19" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B20">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -3822,8 +3895,11 @@
       <c r="K20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M20" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B21">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -3856,8 +3932,11 @@
       <c r="K21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M21" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B22">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -3890,8 +3969,11 @@
       <c r="K22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M22" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B23">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -3924,8 +4006,11 @@
       <c r="K23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M23" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B24" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -3958,8 +4043,11 @@
       <c r="K24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M24" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B25" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -3992,8 +4080,11 @@
       <c r="K25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M25" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B26" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -4026,8 +4117,11 @@
       <c r="K26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M26" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B27" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -4060,8 +4154,11 @@
       <c r="K27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M27" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B28" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -4094,8 +4191,11 @@
       <c r="K28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M28" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B29" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -4128,8 +4228,11 @@
       <c r="K29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M29" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B30" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -4162,8 +4265,11 @@
       <c r="K30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M30" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B31" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -4196,8 +4302,11 @@
       <c r="K31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M31" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B32" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -4227,8 +4336,11 @@
       <c r="K32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M32" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B33" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -4258,8 +4370,11 @@
       <c r="K33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M33" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B34" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -4289,8 +4404,11 @@
       <c r="K34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M34" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B35" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -4320,8 +4438,11 @@
       <c r="K35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M35" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B36" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -4351,8 +4472,11 @@
       <c r="K36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M36" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B37" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -4382,8 +4506,11 @@
       <c r="K37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M37" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B38" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -4413,8 +4540,11 @@
       <c r="K38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M38" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B39" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -4445,8 +4575,11 @@
       <c r="K39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M39" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B40" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -4479,8 +4612,11 @@
       <c r="K40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M40" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B41" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -4510,8 +4646,11 @@
       <c r="K41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M41" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B42" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -4541,8 +4680,11 @@
       <c r="K42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M42" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B43" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -4575,8 +4717,11 @@
       <c r="K43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M43" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B44" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -4609,8 +4754,11 @@
       <c r="K44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M44" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B45" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -4643,8 +4791,11 @@
       <c r="K45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M45" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B46" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -4677,8 +4828,11 @@
       <c r="K46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M46" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B47" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -4711,8 +4865,11 @@
       <c r="K47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M47" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B48" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -4745,8 +4902,11 @@
       <c r="K48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M48" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B49" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -4776,8 +4936,11 @@
       <c r="K49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M49" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B50" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -4810,8 +4973,11 @@
       <c r="K50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M50" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B51" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -4844,8 +5010,11 @@
       <c r="K51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M51" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B52" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -4878,8 +5047,11 @@
       <c r="K52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M52" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B53" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -4912,8 +5084,11 @@
       <c r="K53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M53" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B54" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -4946,8 +5121,11 @@
       <c r="K54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M54" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B55" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -4980,8 +5158,11 @@
       <c r="K55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M55" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B56" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -5014,8 +5195,11 @@
       <c r="K56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M56" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B57" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -5045,8 +5229,11 @@
       <c r="K57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M57" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B58" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -5079,8 +5266,11 @@
       <c r="K58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M58" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B59" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -5110,8 +5300,11 @@
       <c r="K59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M59" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B60">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>2</v>
@@ -5144,8 +5337,11 @@
       <c r="K60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M60" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B61" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>2</v>
@@ -5178,8 +5374,11 @@
       <c r="K61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M61" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B62" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -5209,8 +5408,11 @@
       <c r="K62">
         <v>2</v>
       </c>
-    </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M62" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B63" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -5240,8 +5442,11 @@
       <c r="K63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M63" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B64" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -5271,8 +5476,11 @@
       <c r="K64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M64" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B65" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -5302,8 +5510,11 @@
       <c r="K65">
         <v>2</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M65" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B66" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -5333,8 +5544,11 @@
       <c r="K66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M66" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B67" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -5364,8 +5578,11 @@
       <c r="K67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M67" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B68">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -5398,8 +5615,11 @@
       <c r="K68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M68" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B69" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -5429,8 +5649,11 @@
       <c r="K69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M69" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B70" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -5460,8 +5683,11 @@
       <c r="K70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M70" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B71" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -5491,8 +5717,11 @@
       <c r="K71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M71" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B72" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -5522,8 +5751,11 @@
       <c r="K72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M72" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B73" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -5553,8 +5785,11 @@
       <c r="K73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M73" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B74" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -5584,8 +5819,11 @@
       <c r="K74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M74" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B75" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -5615,8 +5853,11 @@
       <c r="K75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M75" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B76" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -5646,8 +5887,11 @@
       <c r="K76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M76" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B77" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -5677,8 +5921,11 @@
       <c r="K77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M77" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B78" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -5708,8 +5955,11 @@
       <c r="K78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M78" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B79" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -5739,8 +5989,11 @@
       <c r="K79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M79" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B80" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -5770,8 +6023,11 @@
       <c r="K80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M80" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="81" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B81" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -5801,8 +6057,11 @@
       <c r="K81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M81" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="82" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B82" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -5832,8 +6091,11 @@
       <c r="K82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M82" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="83" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B83" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -5863,8 +6125,11 @@
       <c r="K83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M83" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="84" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B84" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -5894,8 +6159,11 @@
       <c r="K84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M84" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="85" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B85" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -5925,8 +6193,11 @@
       <c r="K85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M85" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B86" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -5956,8 +6227,11 @@
       <c r="K86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M86" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="87" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B87" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -5987,8 +6261,11 @@
       <c r="K87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M87" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="88" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B88" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -6018,8 +6295,11 @@
       <c r="K88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M88" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="89" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B89" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -6049,8 +6329,11 @@
       <c r="K89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M89" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="90" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B90" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -6080,8 +6363,11 @@
       <c r="K90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M90" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="91" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B91">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>2</v>
@@ -6111,8 +6397,11 @@
       <c r="K91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M91" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="92" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B92">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -6142,8 +6431,11 @@
       <c r="K92">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M92" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="93" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B93">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>2</v>
@@ -6173,8 +6465,11 @@
       <c r="K93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M93" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="94" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B94">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -6202,8 +6497,11 @@
       <c r="K94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M94" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="95" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B95">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -6233,8 +6531,11 @@
       <c r="K95">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M95" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="96" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B96" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -6267,8 +6568,11 @@
       <c r="K96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M96" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="97" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B97" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -6301,8 +6605,11 @@
       <c r="K97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M97" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="98" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B98" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -6335,8 +6642,11 @@
       <c r="K98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M98" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="99" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B99" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -6366,8 +6676,11 @@
       <c r="K99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M99" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="100" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B100" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -6398,8 +6711,11 @@
       <c r="K100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M100" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="101" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B101" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -6429,8 +6745,11 @@
       <c r="K101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M101" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="102" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B102" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -6463,8 +6782,11 @@
       <c r="K102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M102" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="103" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B103" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -6497,8 +6819,11 @@
       <c r="K103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M103" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="104" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B104" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -6531,8 +6856,11 @@
       <c r="K104">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M104" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="105" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B105" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -6562,8 +6890,11 @@
       <c r="K105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M105" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="106" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B106">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -6596,8 +6927,11 @@
       <c r="K106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M106" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="107" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B107">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -6630,8 +6964,11 @@
       <c r="K107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M107" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="108" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B108">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -6664,8 +7001,11 @@
       <c r="K108">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M108" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="109" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B109">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -6698,8 +7038,11 @@
       <c r="K109">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M109" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="110" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B110" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -6732,8 +7075,11 @@
       <c r="K110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M110" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="111" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B111" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -6767,8 +7113,11 @@
       <c r="K111">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M111" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="112" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B112" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -6798,8 +7147,11 @@
       <c r="K112">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M112" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="113" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B113" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -6829,8 +7181,11 @@
       <c r="K113">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M113" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="114" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B114" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -6860,8 +7215,11 @@
       <c r="K114">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M114" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="115" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B115" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -6891,8 +7249,11 @@
       <c r="K115">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M115" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="116" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B116" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -6922,8 +7283,11 @@
       <c r="K116">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M116" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="117" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B117" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -6953,8 +7317,11 @@
       <c r="K117">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M117" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="118" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B118" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -6987,8 +7354,11 @@
       <c r="K118">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M118" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="119" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B119" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -7018,8 +7388,11 @@
       <c r="K119">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M119" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="120" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B120" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -7052,8 +7425,11 @@
       <c r="K120">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M120" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="121" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B121" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -7086,8 +7462,11 @@
       <c r="K121">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M121" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="122" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B122" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -7120,8 +7499,11 @@
       <c r="K122">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M122" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="123" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B123" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -7151,8 +7533,11 @@
       <c r="K123">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M123" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="124" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B124" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -7182,8 +7567,11 @@
       <c r="K124">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M124" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="125" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B125" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -7213,8 +7601,11 @@
       <c r="K125">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M125" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="126" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B126" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -7244,8 +7635,11 @@
       <c r="K126">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M126" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="127" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B127" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -7278,8 +7672,11 @@
       <c r="K127">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M127" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="128" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B128" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -7312,8 +7709,11 @@
       <c r="K128">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M128" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="129" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B129" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -7346,8 +7746,11 @@
       <c r="K129">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M129" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="130" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B130" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -7380,8 +7783,11 @@
       <c r="K130">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M130" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="131" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B131" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -7414,8 +7820,11 @@
       <c r="K131">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M131" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="132" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B132" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -7448,8 +7857,11 @@
       <c r="K132">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M132" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="133" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B133" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -7479,8 +7891,11 @@
       <c r="K133">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M133" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="134" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B134" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -7510,8 +7925,11 @@
       <c r="K134">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M134" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="135" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B135" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -7541,8 +7959,11 @@
       <c r="K135">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M135" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="136" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B136" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -7572,8 +7993,11 @@
       <c r="K136">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M136" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="137" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B137" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -7606,8 +8030,11 @@
       <c r="K137">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M137" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="138" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B138" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -7640,8 +8067,11 @@
       <c r="K138">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M138" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="139" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B139" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -7671,8 +8101,11 @@
       <c r="K139">
         <v>2</v>
       </c>
-    </row>
-    <row r="140" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M139" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="140" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B140" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -7702,8 +8135,11 @@
       <c r="K140">
         <v>2</v>
       </c>
-    </row>
-    <row r="141" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M140" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="141" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B141" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -7733,8 +8169,11 @@
       <c r="K141">
         <v>2</v>
       </c>
-    </row>
-    <row r="142" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M141" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="142" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B142" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -7764,8 +8203,11 @@
       <c r="K142">
         <v>2</v>
       </c>
-    </row>
-    <row r="143" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M142" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="143" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B143" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -7795,8 +8237,11 @@
       <c r="K143">
         <v>2</v>
       </c>
-    </row>
-    <row r="144" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M143" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="144" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B144">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -7829,8 +8274,11 @@
       <c r="K144">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M144" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="145" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B145">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -7863,8 +8311,11 @@
       <c r="K145">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M145" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="146" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B146">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -7897,8 +8348,11 @@
       <c r="K146">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M146" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="147" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B147" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>2</v>
@@ -7928,8 +8382,11 @@
       <c r="K147">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M147" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="148" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B148" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -7959,8 +8416,11 @@
       <c r="K148">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M148" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="149" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B149" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -7990,8 +8450,11 @@
       <c r="K149">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M149" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="150" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B150" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>2</v>
@@ -8021,8 +8484,11 @@
       <c r="K150">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M150" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="151" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B151" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -8052,8 +8518,11 @@
       <c r="K151">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M151" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="152" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B152" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>2</v>
@@ -8083,8 +8552,11 @@
       <c r="K152">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M152" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="153" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B153" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -8114,8 +8586,11 @@
       <c r="K153">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M153" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="154" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B154" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>2</v>
@@ -8145,8 +8620,11 @@
       <c r="K154">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M154" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="155" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B155" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -8176,8 +8654,11 @@
       <c r="K155">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M155" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="156" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B156" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -8207,8 +8688,11 @@
       <c r="K156">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M156" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="157" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B157" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -8238,8 +8722,11 @@
       <c r="K157">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M157" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="158" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B158" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -8269,8 +8756,11 @@
       <c r="K158">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M158" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="159" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B159">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -8301,8 +8791,11 @@
       <c r="K159">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M159" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="160" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B160">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -8332,8 +8825,11 @@
       <c r="K160">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M160" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="161" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B161">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -8363,8 +8859,11 @@
       <c r="K161">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M161" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="162" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B162">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -8394,8 +8893,11 @@
       <c r="K162">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M162" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="163" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B163">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -8425,8 +8927,11 @@
       <c r="K163">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M163" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="164" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B164">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -8456,8 +8961,11 @@
       <c r="K164">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M164" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="165" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B165">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -8487,8 +8995,11 @@
       <c r="K165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M165" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="166" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B166">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -8518,8 +9029,11 @@
       <c r="K166">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M166" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="167" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B167">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -8549,8 +9063,11 @@
       <c r="K167">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M167" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="168" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B168">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -8580,8 +9097,11 @@
       <c r="K168">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M168" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="169" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B169">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -8611,8 +9131,11 @@
       <c r="K169">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M169" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="170" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B170">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -8642,8 +9165,11 @@
       <c r="K170">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M170" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="171" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B171">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -8673,8 +9199,11 @@
       <c r="K171">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M171" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="172" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B172">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -8704,8 +9233,11 @@
       <c r="K172">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M172" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="173" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B173">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -8735,8 +9267,11 @@
       <c r="K173">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M173" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="174" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B174" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -8766,8 +9301,11 @@
       <c r="K174">
         <v>2</v>
       </c>
-    </row>
-    <row r="175" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M174" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="175" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B175" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -8797,8 +9335,11 @@
       <c r="K175">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M175" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="176" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B176" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -8828,8 +9369,11 @@
       <c r="K176">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M176" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="177" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B177" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -8859,8 +9403,11 @@
       <c r="K177">
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M177" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="178" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B178" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -8890,8 +9437,11 @@
       <c r="K178">
         <v>1</v>
       </c>
-    </row>
-    <row r="179" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M178" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="179" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B179" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -8921,8 +9471,11 @@
       <c r="K179">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M179" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="180" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B180" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -8952,8 +9505,11 @@
       <c r="K180">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M180" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="181" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B181" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -8983,8 +9539,11 @@
       <c r="K181">
         <v>1</v>
       </c>
-    </row>
-    <row r="182" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M181" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="182" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B182" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -9014,8 +9573,11 @@
       <c r="K182">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M182" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="183" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B183" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -9042,8 +9604,11 @@
       <c r="K183">
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M183" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="184" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B184" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -9070,8 +9635,11 @@
       <c r="K184">
         <v>1</v>
       </c>
-    </row>
-    <row r="185" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M184" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="185" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B185" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -9098,8 +9666,11 @@
       <c r="K185">
         <v>1</v>
       </c>
-    </row>
-    <row r="186" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M185" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="186" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B186" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -9132,8 +9703,11 @@
       <c r="K186">
         <v>2</v>
       </c>
-    </row>
-    <row r="187" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M186" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="187" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B187" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -9166,8 +9740,11 @@
       <c r="K187">
         <v>2</v>
       </c>
-    </row>
-    <row r="188" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M187" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="188" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B188" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -9200,8 +9777,11 @@
       <c r="K188">
         <v>2</v>
       </c>
-    </row>
-    <row r="189" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M188" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="189" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B189" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -9234,8 +9814,11 @@
       <c r="K189">
         <v>2</v>
       </c>
-    </row>
-    <row r="190" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M189" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="190" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B190" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -9268,8 +9851,11 @@
       <c r="K190">
         <v>2</v>
       </c>
-    </row>
-    <row r="191" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M190" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="191" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B191" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -9302,8 +9888,11 @@
       <c r="K191">
         <v>2</v>
       </c>
-    </row>
-    <row r="192" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M191" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="192" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B192" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -9336,8 +9925,11 @@
       <c r="K192">
         <v>2</v>
       </c>
-    </row>
-    <row r="193" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M192" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="193" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B193" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -9370,8 +9962,11 @@
       <c r="K193">
         <v>2</v>
       </c>
-    </row>
-    <row r="194" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M193" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="194" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B194" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -9401,8 +9996,11 @@
       <c r="K194">
         <v>2</v>
       </c>
-    </row>
-    <row r="195" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M194" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="195" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B195" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -9435,8 +10033,11 @@
       <c r="K195">
         <v>2</v>
       </c>
-    </row>
-    <row r="196" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M195" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="196" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B196" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -9469,8 +10070,11 @@
       <c r="K196">
         <v>2</v>
       </c>
-    </row>
-    <row r="197" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M196" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="197" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B197" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -9503,8 +10107,11 @@
       <c r="K197">
         <v>2</v>
       </c>
-    </row>
-    <row r="198" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M197" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="198" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B198" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -9537,8 +10144,11 @@
       <c r="K198">
         <v>2</v>
       </c>
-    </row>
-    <row r="199" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M198" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="199" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B199" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -9571,8 +10181,11 @@
       <c r="K199">
         <v>2</v>
       </c>
-    </row>
-    <row r="200" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M199" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="200" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B200" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -9605,8 +10218,11 @@
       <c r="K200">
         <v>2</v>
       </c>
-    </row>
-    <row r="201" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M200" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="201" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B201" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -9639,8 +10255,11 @@
       <c r="K201">
         <v>2</v>
       </c>
-    </row>
-    <row r="202" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M201" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="202" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B202" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -9673,8 +10292,11 @@
       <c r="K202">
         <v>2</v>
       </c>
-    </row>
-    <row r="203" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M202" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="203" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B203" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -9707,8 +10329,11 @@
       <c r="K203">
         <v>2</v>
       </c>
-    </row>
-    <row r="204" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M203" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="204" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B204" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -9741,8 +10366,11 @@
       <c r="K204">
         <v>2</v>
       </c>
-    </row>
-    <row r="205" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M204" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="205" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B205" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -9775,8 +10403,11 @@
       <c r="K205">
         <v>2</v>
       </c>
-    </row>
-    <row r="206" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M205" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="206" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B206">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -9806,8 +10437,11 @@
       <c r="K206">
         <v>2</v>
       </c>
-    </row>
-    <row r="207" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M206" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="207" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B207">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -9837,8 +10471,11 @@
       <c r="K207">
         <v>2</v>
       </c>
-    </row>
-    <row r="208" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M207" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="208" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B208">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -9868,8 +10505,11 @@
       <c r="K208">
         <v>2</v>
       </c>
-    </row>
-    <row r="209" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M208" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="209" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B209">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -9899,8 +10539,11 @@
       <c r="K209">
         <v>2</v>
       </c>
-    </row>
-    <row r="210" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M209" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="210" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B210">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -9930,8 +10573,11 @@
       <c r="K210">
         <v>2</v>
       </c>
-    </row>
-    <row r="211" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M210" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="211" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B211">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -9961,8 +10607,11 @@
       <c r="K211">
         <v>2</v>
       </c>
-    </row>
-    <row r="212" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M211" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="212" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B212">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -9992,8 +10641,11 @@
       <c r="K212">
         <v>2</v>
       </c>
-    </row>
-    <row r="213" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M212" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="213" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B213">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -10023,8 +10675,11 @@
       <c r="K213">
         <v>2</v>
       </c>
-    </row>
-    <row r="214" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M213" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="214" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B214">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -10054,8 +10709,11 @@
       <c r="K214">
         <v>2</v>
       </c>
-    </row>
-    <row r="215" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M214" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="215" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B215">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -10085,8 +10743,11 @@
       <c r="K215">
         <v>2</v>
       </c>
-    </row>
-    <row r="216" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M215" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="216" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B216">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -10116,8 +10777,11 @@
       <c r="K216">
         <v>2</v>
       </c>
-    </row>
-    <row r="217" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M216" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="217" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B217">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -10147,8 +10811,11 @@
       <c r="K217">
         <v>2</v>
       </c>
-    </row>
-    <row r="218" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M217" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="218" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B218">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -10178,8 +10845,11 @@
       <c r="K218">
         <v>2</v>
       </c>
-    </row>
-    <row r="219" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M218" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="219" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B219">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -10209,8 +10879,11 @@
       <c r="K219">
         <v>2</v>
       </c>
-    </row>
-    <row r="220" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M219" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="220" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B220">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -10240,8 +10913,11 @@
       <c r="K220">
         <v>2</v>
       </c>
-    </row>
-    <row r="221" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M220" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="221" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B221">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -10268,8 +10944,11 @@
       <c r="K221">
         <v>2</v>
       </c>
-    </row>
-    <row r="222" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M221" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="222" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B222">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -10299,8 +10978,11 @@
       <c r="K222">
         <v>2</v>
       </c>
-    </row>
-    <row r="223" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M222" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="223" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B223">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -10327,8 +11009,11 @@
       <c r="J223" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="224" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M223" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="224" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B224" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -10358,8 +11043,11 @@
       <c r="K224">
         <v>2</v>
       </c>
-    </row>
-    <row r="225" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M224" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="225" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B225" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -10389,8 +11077,11 @@
       <c r="K225">
         <v>2</v>
       </c>
-    </row>
-    <row r="226" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M225" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="226" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B226" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -10420,8 +11111,11 @@
       <c r="K226">
         <v>2</v>
       </c>
-    </row>
-    <row r="227" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M226" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="227" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B227" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -10451,8 +11145,11 @@
       <c r="K227">
         <v>2</v>
       </c>
-    </row>
-    <row r="228" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M227" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="228" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B228" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -10485,8 +11182,11 @@
       <c r="K228">
         <v>2</v>
       </c>
-    </row>
-    <row r="229" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M228" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="229" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B229" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -10519,8 +11219,11 @@
       <c r="K229">
         <v>2</v>
       </c>
-    </row>
-    <row r="230" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M229" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="230" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B230" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -10553,8 +11256,11 @@
       <c r="K230">
         <v>2</v>
       </c>
-    </row>
-    <row r="231" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M230" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="231" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B231" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -10588,8 +11294,11 @@
       <c r="K231">
         <v>2</v>
       </c>
-    </row>
-    <row r="232" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M231" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="232" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B232" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -10622,8 +11331,11 @@
       <c r="K232">
         <v>2</v>
       </c>
-    </row>
-    <row r="233" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M232" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="233" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B233" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -10656,8 +11368,11 @@
       <c r="K233">
         <v>2</v>
       </c>
-    </row>
-    <row r="234" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M233" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="234" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B234" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -10690,8 +11405,11 @@
       <c r="K234">
         <v>2</v>
       </c>
-    </row>
-    <row r="235" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M234" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="235" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B235" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -10724,8 +11442,11 @@
       <c r="K235">
         <v>2</v>
       </c>
-    </row>
-    <row r="236" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M235" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="236" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B236" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -10758,8 +11479,11 @@
       <c r="K236">
         <v>2</v>
       </c>
-    </row>
-    <row r="237" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M236" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="237" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B237" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -10789,8 +11513,11 @@
       <c r="K237">
         <v>2</v>
       </c>
-    </row>
-    <row r="238" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M237" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="238" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B238" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -10823,8 +11550,11 @@
       <c r="K238">
         <v>2</v>
       </c>
-    </row>
-    <row r="239" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M238" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="239" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B239" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -10857,8 +11587,11 @@
       <c r="K239">
         <v>2</v>
       </c>
-    </row>
-    <row r="240" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M239" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="240" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B240" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -10891,8 +11624,11 @@
       <c r="K240">
         <v>2</v>
       </c>
-    </row>
-    <row r="241" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M240" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="241" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B241" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -10925,8 +11661,11 @@
       <c r="K241">
         <v>2</v>
       </c>
-    </row>
-    <row r="242" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M241" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="242" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B242" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -10959,8 +11698,11 @@
       <c r="K242">
         <v>2</v>
       </c>
-    </row>
-    <row r="243" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M242" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="243" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B243" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -10993,8 +11735,11 @@
       <c r="K243">
         <v>2</v>
       </c>
-    </row>
-    <row r="244" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M243" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="244" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B244" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -11024,8 +11769,11 @@
       <c r="K244">
         <v>2</v>
       </c>
-    </row>
-    <row r="245" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M244" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="245" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B245" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -11055,8 +11803,11 @@
       <c r="K245">
         <v>2</v>
       </c>
-    </row>
-    <row r="246" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M245" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="246" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B246" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -11086,8 +11837,11 @@
       <c r="K246">
         <v>2</v>
       </c>
-    </row>
-    <row r="247" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M246" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="247" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B247" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -11117,8 +11871,11 @@
       <c r="K247">
         <v>2</v>
       </c>
-    </row>
-    <row r="248" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M247" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="248" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B248" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -11151,8 +11908,11 @@
       <c r="K248">
         <v>2</v>
       </c>
-    </row>
-    <row r="249" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M248" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="249" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B249" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -11185,8 +11945,11 @@
       <c r="K249">
         <v>2</v>
       </c>
-    </row>
-    <row r="250" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M249" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="250" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B250" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -11219,8 +11982,11 @@
       <c r="K250">
         <v>2</v>
       </c>
-    </row>
-    <row r="251" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M250" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="251" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B251" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -11253,8 +12019,11 @@
       <c r="K251">
         <v>2</v>
       </c>
-    </row>
-    <row r="252" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M251" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="252" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B252" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -11287,8 +12056,11 @@
       <c r="K252">
         <v>2</v>
       </c>
-    </row>
-    <row r="253" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M252" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="253" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B253" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -11321,8 +12093,11 @@
       <c r="K253">
         <v>2</v>
       </c>
-    </row>
-    <row r="254" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M253" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="254" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B254" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -11355,8 +12130,11 @@
       <c r="K254">
         <v>2</v>
       </c>
-    </row>
-    <row r="255" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M254" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="255" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B255" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -11389,8 +12167,11 @@
       <c r="K255">
         <v>2</v>
       </c>
-    </row>
-    <row r="256" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M255" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="256" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B256" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -11423,8 +12204,11 @@
       <c r="K256">
         <v>2</v>
       </c>
-    </row>
-    <row r="257" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M256" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="257" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B257" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -11457,8 +12241,11 @@
       <c r="K257">
         <v>2</v>
       </c>
-    </row>
-    <row r="258" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M257" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="258" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B258" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -11491,8 +12278,11 @@
       <c r="K258">
         <v>2</v>
       </c>
-    </row>
-    <row r="259" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M258" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="259" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B259" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -11525,8 +12315,11 @@
       <c r="K259">
         <v>2</v>
       </c>
-    </row>
-    <row r="260" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M259" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="260" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B260" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -11559,8 +12352,11 @@
       <c r="K260">
         <v>1</v>
       </c>
-    </row>
-    <row r="261" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M260" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="261" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B261" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -11593,8 +12389,11 @@
       <c r="K261">
         <v>1</v>
       </c>
-    </row>
-    <row r="262" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M261" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="262" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B262" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -11627,8 +12426,11 @@
       <c r="K262">
         <v>1</v>
       </c>
-    </row>
-    <row r="263" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M262" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="263" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B263" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -11661,8 +12463,11 @@
       <c r="K263">
         <v>1</v>
       </c>
-    </row>
-    <row r="264" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M263" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="264" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B264" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -11695,8 +12500,11 @@
       <c r="K264">
         <v>1</v>
       </c>
-    </row>
-    <row r="265" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M264" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="265" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B265" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -11729,8 +12537,11 @@
       <c r="K265">
         <v>1</v>
       </c>
-    </row>
-    <row r="266" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M265" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="266" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B266" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -11763,8 +12574,11 @@
       <c r="K266">
         <v>1</v>
       </c>
-    </row>
-    <row r="267" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M266" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="267" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B267" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -11797,8 +12611,11 @@
       <c r="K267">
         <v>1</v>
       </c>
-    </row>
-    <row r="268" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M267" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="268" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B268" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -11831,8 +12648,11 @@
       <c r="K268">
         <v>1</v>
       </c>
-    </row>
-    <row r="269" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M268" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="269" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B269">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -11865,8 +12685,11 @@
       <c r="K269">
         <v>1</v>
       </c>
-    </row>
-    <row r="270" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M269" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="270" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B270">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -11893,8 +12716,11 @@
       <c r="K270">
         <v>1</v>
       </c>
-    </row>
-    <row r="271" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M270" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="271" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B271" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -11921,8 +12747,11 @@
       <c r="K271">
         <v>2</v>
       </c>
-    </row>
-    <row r="272" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M271" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="272" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B272" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -11955,8 +12784,11 @@
       <c r="K272">
         <v>1</v>
       </c>
-    </row>
-    <row r="273" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M272" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="273" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B273" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -11990,8 +12822,11 @@
       <c r="K273">
         <v>1</v>
       </c>
-    </row>
-    <row r="274" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M273" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="274" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B274" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -12024,8 +12859,11 @@
       <c r="K274">
         <v>1</v>
       </c>
-    </row>
-    <row r="275" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M274" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="275" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B275" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -12058,8 +12896,11 @@
       <c r="K275">
         <v>1</v>
       </c>
-    </row>
-    <row r="276" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M275" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="276" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B276" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -12092,8 +12933,11 @@
       <c r="K276">
         <v>1</v>
       </c>
-    </row>
-    <row r="277" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M276" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="277" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B277" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -12123,8 +12967,11 @@
       <c r="K277">
         <v>1</v>
       </c>
-    </row>
-    <row r="278" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M277" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="278" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B278" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -12154,8 +13001,11 @@
       <c r="K278">
         <v>1</v>
       </c>
-    </row>
-    <row r="279" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M278" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="279" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B279" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -12188,8 +13038,11 @@
       <c r="K279">
         <v>1</v>
       </c>
-    </row>
-    <row r="280" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M279" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="280" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B280" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -12222,8 +13075,11 @@
       <c r="K280">
         <v>1</v>
       </c>
-    </row>
-    <row r="281" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M280" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="281" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B281">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -12256,8 +13112,11 @@
       <c r="K281">
         <v>1</v>
       </c>
-    </row>
-    <row r="282" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M281" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="282" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B282" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -12290,8 +13149,11 @@
       <c r="K282">
         <v>1</v>
       </c>
-    </row>
-    <row r="283" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M282" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="283" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B283" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -12321,8 +13183,11 @@
       <c r="K283">
         <v>1</v>
       </c>
-    </row>
-    <row r="284" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M283" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="284" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B284" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -12352,8 +13217,11 @@
       <c r="K284">
         <v>1</v>
       </c>
-    </row>
-    <row r="285" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M284" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="285" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B285" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -12383,8 +13251,11 @@
       <c r="K285">
         <v>1</v>
       </c>
-    </row>
-    <row r="286" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M285" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="286" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B286" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -12417,8 +13288,11 @@
       <c r="K286">
         <v>1</v>
       </c>
-    </row>
-    <row r="287" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M286" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="287" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B287" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -12451,8 +13325,11 @@
       <c r="K287">
         <v>2</v>
       </c>
-    </row>
-    <row r="288" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M287" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="288" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B288" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -12479,8 +13356,11 @@
       <c r="K288">
         <v>2</v>
       </c>
-    </row>
-    <row r="289" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M288" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="289" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B289" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -12507,8 +13387,11 @@
       <c r="K289">
         <v>2</v>
       </c>
-    </row>
-    <row r="290" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M289" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="290" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B290" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -12538,8 +13421,11 @@
       <c r="K290">
         <v>2</v>
       </c>
-    </row>
-    <row r="291" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M290" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="291" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B291" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -12569,8 +13455,11 @@
       <c r="K291">
         <v>2</v>
       </c>
-    </row>
-    <row r="292" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M291" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="292" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B292" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -12600,8 +13489,11 @@
       <c r="K292">
         <v>2</v>
       </c>
-    </row>
-    <row r="293" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M292" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="293" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B293" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -12634,8 +13526,11 @@
       <c r="K293">
         <v>1</v>
       </c>
-    </row>
-    <row r="294" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M293" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="294" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B294" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -12668,8 +13563,11 @@
       <c r="K294">
         <v>2</v>
       </c>
-    </row>
-    <row r="295" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M294" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="295" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B295" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -12702,8 +13600,11 @@
       <c r="K295">
         <v>2</v>
       </c>
-    </row>
-    <row r="296" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M295" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="296" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B296" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -12733,8 +13634,11 @@
       <c r="K296">
         <v>2</v>
       </c>
-    </row>
-    <row r="297" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M296" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="297" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B297" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -12764,8 +13668,11 @@
       <c r="K297">
         <v>2</v>
       </c>
-    </row>
-    <row r="298" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M297" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="298" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B298" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -12795,8 +13702,11 @@
       <c r="K298">
         <v>2</v>
       </c>
-    </row>
-    <row r="299" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M298" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="299" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B299" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -12826,8 +13736,11 @@
       <c r="K299">
         <v>2</v>
       </c>
-    </row>
-    <row r="300" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M299" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="300" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B300" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -12857,8 +13770,11 @@
       <c r="K300">
         <v>2</v>
       </c>
-    </row>
-    <row r="301" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M300" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="301" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B301" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -12888,8 +13804,11 @@
       <c r="K301">
         <v>2</v>
       </c>
-    </row>
-    <row r="302" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M301" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="302" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B302" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -12919,8 +13838,11 @@
       <c r="K302">
         <v>1</v>
       </c>
-    </row>
-    <row r="303" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M302" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="303" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B303" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -12950,8 +13872,11 @@
       <c r="K303">
         <v>1</v>
       </c>
-    </row>
-    <row r="304" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M303" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="304" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B304" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -12981,8 +13906,11 @@
       <c r="K304">
         <v>1</v>
       </c>
-    </row>
-    <row r="305" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M304" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="305" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B305" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -13012,8 +13940,11 @@
       <c r="K305">
         <v>1</v>
       </c>
-    </row>
-    <row r="306" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M305" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="306" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B306">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -13046,8 +13977,11 @@
       <c r="K306">
         <v>1</v>
       </c>
-    </row>
-    <row r="307" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M306" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="307" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B307">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -13080,8 +14014,11 @@
       <c r="K307">
         <v>1</v>
       </c>
-    </row>
-    <row r="308" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M307" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="308" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B308" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -13114,8 +14051,11 @@
       <c r="K308">
         <v>1</v>
       </c>
-    </row>
-    <row r="309" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M308" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="309" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B309" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -13148,8 +14088,11 @@
       <c r="K309">
         <v>1</v>
       </c>
-    </row>
-    <row r="310" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M309" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="310" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B310" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -13182,8 +14125,11 @@
       <c r="K310">
         <v>1</v>
       </c>
-    </row>
-    <row r="311" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M310" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="311" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B311" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -13213,8 +14159,11 @@
       <c r="K311">
         <v>1</v>
       </c>
-    </row>
-    <row r="312" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M311" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="312" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B312" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -13247,8 +14196,11 @@
       <c r="K312">
         <v>1</v>
       </c>
-    </row>
-    <row r="313" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M312" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="313" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B313" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -13278,8 +14230,11 @@
       <c r="K313">
         <v>1</v>
       </c>
-    </row>
-    <row r="314" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M313" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="314" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B314" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -13309,8 +14264,11 @@
       <c r="K314">
         <v>1</v>
       </c>
-    </row>
-    <row r="315" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M314" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="315" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B315" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -13340,8 +14298,11 @@
       <c r="K315">
         <v>1</v>
       </c>
-    </row>
-    <row r="316" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M315" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="316" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B316" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -13371,8 +14332,11 @@
       <c r="K316">
         <v>1</v>
       </c>
-    </row>
-    <row r="317" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M316" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="317" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B317" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -13403,8 +14367,11 @@
       <c r="K317">
         <v>1</v>
       </c>
-    </row>
-    <row r="318" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M317" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="318" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B318" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -13434,8 +14401,11 @@
       <c r="K318">
         <v>1</v>
       </c>
-    </row>
-    <row r="319" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M318" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="319" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B319" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -13465,8 +14435,11 @@
       <c r="K319">
         <v>1</v>
       </c>
-    </row>
-    <row r="320" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M319" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="320" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B320" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -13496,8 +14469,11 @@
       <c r="K320">
         <v>2</v>
       </c>
-    </row>
-    <row r="321" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M320" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="321" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B321" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -13527,8 +14503,11 @@
       <c r="K321">
         <v>2</v>
       </c>
-    </row>
-    <row r="322" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M321" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="322" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B322" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -13558,8 +14537,11 @@
       <c r="K322">
         <v>2</v>
       </c>
-    </row>
-    <row r="323" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M322" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="323" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B323" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -13590,8 +14572,11 @@
       <c r="K323">
         <v>1</v>
       </c>
-    </row>
-    <row r="324" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M323" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="324" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B324" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -13622,8 +14607,11 @@
       <c r="K324">
         <v>1</v>
       </c>
-    </row>
-    <row r="325" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M324" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="325" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B325" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -13653,8 +14641,11 @@
       <c r="K325">
         <v>1</v>
       </c>
-    </row>
-    <row r="326" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M325" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="326" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B326" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -13687,8 +14678,11 @@
       <c r="K326">
         <v>1</v>
       </c>
-    </row>
-    <row r="327" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M326" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="327" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B327" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -13721,8 +14715,11 @@
       <c r="K327">
         <v>1</v>
       </c>
-    </row>
-    <row r="328" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M327" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="328" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B328" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -13755,8 +14752,11 @@
       <c r="K328">
         <v>1</v>
       </c>
-    </row>
-    <row r="329" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M328" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="329" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B329" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -13789,8 +14789,11 @@
       <c r="K329">
         <v>1</v>
       </c>
-    </row>
-    <row r="330" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M329" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="330" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B330" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -13820,8 +14823,11 @@
       <c r="K330">
         <v>1</v>
       </c>
-    </row>
-    <row r="331" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M330" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="331" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B331" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -13854,8 +14860,11 @@
       <c r="K331">
         <v>1</v>
       </c>
-    </row>
-    <row r="332" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M331" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="332" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B332" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -13888,8 +14897,11 @@
       <c r="K332">
         <v>1</v>
       </c>
-    </row>
-    <row r="333" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M332" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="333" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B333" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -13922,8 +14934,11 @@
       <c r="K333">
         <v>1</v>
       </c>
-    </row>
-    <row r="334" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M333" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="334" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B334" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -13956,8 +14971,11 @@
       <c r="K334">
         <v>1</v>
       </c>
-    </row>
-    <row r="335" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M334" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="335" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B335" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -13990,8 +15008,11 @@
       <c r="K335">
         <v>1</v>
       </c>
-    </row>
-    <row r="336" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M335" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="336" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B336" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -14024,8 +15045,11 @@
       <c r="K336">
         <v>1</v>
       </c>
-    </row>
-    <row r="337" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M336" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="337" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B337" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -14058,8 +15082,11 @@
       <c r="K337">
         <v>1</v>
       </c>
-    </row>
-    <row r="338" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M337" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="338" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B338" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -14092,8 +15119,11 @@
       <c r="K338">
         <v>1</v>
       </c>
-    </row>
-    <row r="339" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M338" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="339" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B339" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -14126,8 +15156,11 @@
       <c r="K339">
         <v>1</v>
       </c>
-    </row>
-    <row r="340" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M339" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="340" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B340" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -14160,8 +15193,11 @@
       <c r="K340">
         <v>1</v>
       </c>
-    </row>
-    <row r="341" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M340" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="341" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B341" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -14191,8 +15227,11 @@
       <c r="K341">
         <v>1</v>
       </c>
-    </row>
-    <row r="342" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M341" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="342" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B342" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -14222,8 +15261,11 @@
       <c r="K342">
         <v>1</v>
       </c>
-    </row>
-    <row r="343" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M342" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="343" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B343" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -14253,8 +15295,11 @@
       <c r="K343">
         <v>1</v>
       </c>
-    </row>
-    <row r="344" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M343" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="344" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B344" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -14284,8 +15329,11 @@
       <c r="K344">
         <v>1</v>
       </c>
-    </row>
-    <row r="345" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M344" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="345" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B345" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -14315,8 +15363,11 @@
       <c r="K345">
         <v>1</v>
       </c>
-    </row>
-    <row r="346" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M345" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="346" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B346" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -14346,8 +15397,11 @@
       <c r="K346">
         <v>1</v>
       </c>
-    </row>
-    <row r="347" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M346" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="347" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B347" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -14377,8 +15431,11 @@
       <c r="K347">
         <v>1</v>
       </c>
-    </row>
-    <row r="348" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M347" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="348" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B348" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -14408,8 +15465,11 @@
       <c r="K348">
         <v>1</v>
       </c>
-    </row>
-    <row r="349" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M348" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="349" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B349" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -14439,8 +15499,11 @@
       <c r="K349">
         <v>1</v>
       </c>
-    </row>
-    <row r="350" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M349" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="350" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B350" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -14470,8 +15533,11 @@
       <c r="K350">
         <v>1</v>
       </c>
-    </row>
-    <row r="351" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M350" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="351" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B351" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -14501,8 +15567,11 @@
       <c r="K351">
         <v>1</v>
       </c>
-    </row>
-    <row r="352" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M351" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="352" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B352" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -14532,8 +15601,11 @@
       <c r="K352">
         <v>1</v>
       </c>
-    </row>
-    <row r="353" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M352" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="353" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B353" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -14563,8 +15635,11 @@
       <c r="K353">
         <v>1</v>
       </c>
-    </row>
-    <row r="354" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M353" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="354" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B354" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -14594,8 +15669,11 @@
       <c r="K354">
         <v>1</v>
       </c>
-    </row>
-    <row r="355" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M354" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="355" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B355" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -14625,8 +15703,11 @@
       <c r="K355">
         <v>1</v>
       </c>
-    </row>
-    <row r="356" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M355" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="356" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B356" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -14656,8 +15737,11 @@
       <c r="K356">
         <v>1</v>
       </c>
-    </row>
-    <row r="357" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M356" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="357" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B357" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -14688,8 +15772,11 @@
       <c r="K357">
         <v>1</v>
       </c>
-    </row>
-    <row r="358" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M357" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="358" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B358" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -14719,8 +15806,11 @@
       <c r="K358">
         <v>1</v>
       </c>
-    </row>
-    <row r="359" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M358" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="359" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B359" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -14750,8 +15840,11 @@
       <c r="K359">
         <v>1</v>
       </c>
-    </row>
-    <row r="360" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M359" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="360" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B360" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -14781,8 +15874,11 @@
       <c r="K360">
         <v>1</v>
       </c>
-    </row>
-    <row r="361" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M360" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="361" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B361" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -14812,8 +15908,11 @@
       <c r="K361">
         <v>1</v>
       </c>
-    </row>
-    <row r="362" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M361" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="362" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B362" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -14843,8 +15942,11 @@
       <c r="K362">
         <v>1</v>
       </c>
-    </row>
-    <row r="363" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M362" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="363" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B363" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -14874,8 +15976,11 @@
       <c r="K363">
         <v>1</v>
       </c>
-    </row>
-    <row r="364" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M363" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="364" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B364" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -14902,8 +16007,11 @@
       <c r="K364">
         <v>1</v>
       </c>
-    </row>
-    <row r="365" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M364" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="365" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B365" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -14933,8 +16041,11 @@
       <c r="K365">
         <v>1</v>
       </c>
-    </row>
-    <row r="366" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M365" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="366" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B366" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -14964,8 +16075,11 @@
       <c r="K366">
         <v>1</v>
       </c>
-    </row>
-    <row r="367" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M366" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="367" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B367" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -14995,8 +16109,11 @@
       <c r="K367">
         <v>1</v>
       </c>
-    </row>
-    <row r="368" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M367" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="368" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B368" s="4">
         <f>COUNTIF(Tableau1[RefProduit],Tableau1[[#This Row],[RefProduit]])</f>
         <v>1</v>
@@ -15007,6 +16124,12 @@
       </c>
       <c r="E368" s="2"/>
       <c r="H368" s="3"/>
+      <c r="M368" t="s">
+        <v>868</v>
+      </c>
+      <c r="N368" t="s">
+        <v>869</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A110:D110 G110:K110 A3:K109">
